--- a/reportes/reportePersonas.xlsx
+++ b/reportes/reportePersonas.xlsx
@@ -4,10 +4,87 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="personas" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="personas" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>marcos@gmail.com</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>mafa1008@gmail.com</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>Sebas</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Xiomara</t>
+  </si>
+  <si>
+    <t>Susana</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Cami</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>pepe</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>Carlitos</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Estefa</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,9 +459,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
